--- a/実行結果/calSameImpression_twitter.xlsx
+++ b/実行結果/calSameImpression_twitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC66F350-2713-4F96-BBE5-3E4108E6A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4DFFD2-B262-4C4D-B77C-2B5B5B0CE7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10320" xr2:uid="{99613F9D-BF11-4106-90E3-561DBF70D228}"/>
   </bookViews>
@@ -744,6 +744,35 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>calSameImpression_twitter!$B$1:$B$468</c:f>
@@ -4681,7 +4710,7 @@
   <dimension ref="A1:C468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
